--- a/Code/Results/Cases/Case_5_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.45912808962679</v>
+        <v>9.159246203565633</v>
       </c>
       <c r="C2">
-        <v>7.164740222986496</v>
+        <v>4.5499046280394</v>
       </c>
       <c r="D2">
-        <v>6.633060472436152</v>
+        <v>8.979792736928719</v>
       </c>
       <c r="E2">
-        <v>9.286311182010959</v>
+        <v>13.7741381894298</v>
       </c>
       <c r="F2">
-        <v>23.43734301390789</v>
+        <v>34.55325754982253</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>15.32830005629401</v>
+        <v>24.06312510769107</v>
       </c>
       <c r="J2">
-        <v>6.069812545828315</v>
+        <v>10.2682249483143</v>
       </c>
       <c r="K2">
-        <v>11.28524883511424</v>
+        <v>9.454984062778191</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.09026870983729</v>
+        <v>14.9799449664667</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.97643551014576</v>
+        <v>26.20885599705282</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.68301566890337</v>
+        <v>8.884693243138871</v>
       </c>
       <c r="C3">
-        <v>6.737286099769717</v>
+        <v>4.367182745457606</v>
       </c>
       <c r="D3">
-        <v>6.362196952669239</v>
+        <v>8.945177260699065</v>
       </c>
       <c r="E3">
-        <v>9.07434486371085</v>
+        <v>13.7707508465182</v>
       </c>
       <c r="F3">
-        <v>23.29147082722368</v>
+        <v>34.63598502883749</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>15.5217354059877</v>
+        <v>24.16142677615201</v>
       </c>
       <c r="J3">
-        <v>6.080982327891626</v>
+        <v>10.28965163120334</v>
       </c>
       <c r="K3">
-        <v>10.65189545533516</v>
+        <v>9.278017926341722</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.61051609403259</v>
+        <v>14.91348651162734</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.05092826390843</v>
+        <v>26.2980661370311</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.1794787304368</v>
+        <v>8.712933884357584</v>
       </c>
       <c r="C4">
-        <v>6.460725056783126</v>
+        <v>4.251398255476476</v>
       </c>
       <c r="D4">
-        <v>6.192419923287787</v>
+        <v>8.925247705600935</v>
       </c>
       <c r="E4">
-        <v>8.946557649297283</v>
+        <v>13.77098270969455</v>
       </c>
       <c r="F4">
-        <v>23.22054605147083</v>
+        <v>34.69421619270263</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>15.65067502955012</v>
+        <v>24.22599673055941</v>
       </c>
       <c r="J4">
-        <v>6.090388663981384</v>
+        <v>10.30397794892029</v>
       </c>
       <c r="K4">
-        <v>10.24301823546944</v>
+        <v>9.168876820606073</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.30850274866276</v>
+        <v>14.87470806016489</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.10982411043307</v>
+        <v>26.35785915870146</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.9675032392009</v>
+        <v>8.642247163269831</v>
       </c>
       <c r="C5">
-        <v>6.344498392510315</v>
+        <v>4.203379289785875</v>
       </c>
       <c r="D5">
-        <v>6.12246426554679</v>
+        <v>8.917465203559033</v>
       </c>
       <c r="E5">
-        <v>8.895136870011672</v>
+        <v>13.7716600822821</v>
       </c>
       <c r="F5">
-        <v>23.19621393807359</v>
+        <v>34.71981260068038</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>15.70568648618758</v>
+        <v>24.25336866349686</v>
       </c>
       <c r="J5">
-        <v>6.094848588797936</v>
+        <v>10.3101106098418</v>
       </c>
       <c r="K5">
-        <v>10.07142633628931</v>
+        <v>9.124336355166697</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.18372879502895</v>
+        <v>14.85942676693016</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.13700547842994</v>
+        <v>26.38348551760726</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.93189586265072</v>
+        <v>8.630471080607132</v>
       </c>
       <c r="C6">
-        <v>6.324986872574424</v>
+        <v>4.195357425595826</v>
       </c>
       <c r="D6">
-        <v>6.110804858763383</v>
+        <v>8.916193562360677</v>
       </c>
       <c r="E6">
-        <v>8.88663970661475</v>
+        <v>13.77180780581888</v>
       </c>
       <c r="F6">
-        <v>23.19244604752463</v>
+        <v>34.72417551263641</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>15.71496762996752</v>
+        <v>24.25797772076475</v>
       </c>
       <c r="J6">
-        <v>6.09562660693993</v>
+        <v>10.3111467335971</v>
       </c>
       <c r="K6">
-        <v>10.04263539367658</v>
+        <v>9.116938231947831</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.16291286414005</v>
+        <v>14.85692112462051</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.14170736236829</v>
+        <v>26.38781682421463</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17664738688566</v>
+        <v>8.711983239181254</v>
       </c>
       <c r="C7">
-        <v>6.459171825550117</v>
+        <v>4.250753944088129</v>
       </c>
       <c r="D7">
-        <v>6.191479452549228</v>
+        <v>8.925141368112396</v>
       </c>
       <c r="E7">
-        <v>8.945861445496803</v>
+        <v>13.77098948297799</v>
       </c>
       <c r="F7">
-        <v>23.22019955632957</v>
+        <v>34.69455384088151</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>15.65140705615686</v>
+        <v>24.22636158963585</v>
       </c>
       <c r="J7">
-        <v>6.090446292611725</v>
+        <v>10.30405946302914</v>
       </c>
       <c r="K7">
-        <v>10.24072412722152</v>
+        <v>9.168276317672932</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.30682664899064</v>
+        <v>14.87449984612216</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.11017797528532</v>
+        <v>26.3581996642004</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.19713090775077</v>
+        <v>9.065302719393374</v>
       </c>
       <c r="C8">
-        <v>7.020290483331841</v>
+        <v>4.48768580520126</v>
       </c>
       <c r="D8">
-        <v>6.540443216659257</v>
+        <v>8.967586068079791</v>
       </c>
       <c r="E8">
-        <v>9.212771039866068</v>
+        <v>13.77249146527835</v>
       </c>
       <c r="F8">
-        <v>23.38310952417039</v>
+        <v>34.58023681273165</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>15.39282986080167</v>
+        <v>24.09614520729617</v>
       </c>
       <c r="J8">
-        <v>6.073126572833383</v>
+        <v>10.27537016654426</v>
       </c>
       <c r="K8">
-        <v>11.07104773825101</v>
+        <v>9.394100161046506</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.92649029175666</v>
+        <v>14.95661637013869</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.99931227181755</v>
+        <v>26.2385733496846</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.98416951692387</v>
+        <v>9.728600983315824</v>
       </c>
       <c r="C9">
-        <v>8.008286374227891</v>
+        <v>4.921230539540634</v>
       </c>
       <c r="D9">
-        <v>7.193405912539773</v>
+        <v>9.061054958811647</v>
       </c>
       <c r="E9">
-        <v>9.752320715694994</v>
+        <v>13.79370005099408</v>
       </c>
       <c r="F9">
-        <v>23.85526252781428</v>
+        <v>34.41519295800673</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>14.97082922037951</v>
+        <v>23.87421734668317</v>
       </c>
       <c r="J9">
-        <v>6.060018173000099</v>
+        <v>10.22838251832838</v>
       </c>
       <c r="K9">
-        <v>12.5389571907862</v>
+        <v>9.830679906132675</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.07622206225159</v>
+        <v>15.13320433210067</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.8921415316649</v>
+        <v>26.04386532493187</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1673361456524</v>
+        <v>10.19269661076779</v>
       </c>
       <c r="C10">
-        <v>8.665567108491828</v>
+        <v>5.217870362417696</v>
       </c>
       <c r="D10">
-        <v>7.649667296182939</v>
+        <v>9.135577970303817</v>
       </c>
       <c r="E10">
-        <v>10.15523587209303</v>
+        <v>13.82029583442855</v>
       </c>
       <c r="F10">
-        <v>24.3010997952891</v>
+        <v>34.33014180081307</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>14.71924361138561</v>
+        <v>23.7315484329818</v>
       </c>
       <c r="J10">
-        <v>6.063997255519438</v>
+        <v>10.19949485138652</v>
       </c>
       <c r="K10">
-        <v>13.51834803466506</v>
+        <v>10.14449992273153</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.90539206428158</v>
+        <v>15.27168703527892</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.88877448118289</v>
+        <v>25.92521299511376</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.67770716001541</v>
+        <v>10.39783829902836</v>
       </c>
       <c r="C11">
-        <v>8.949778520205246</v>
+        <v>5.347575969763244</v>
       </c>
       <c r="D11">
-        <v>7.851429513140531</v>
+        <v>9.170662029413281</v>
       </c>
       <c r="E11">
-        <v>10.33929911599656</v>
+        <v>13.83475552262654</v>
       </c>
       <c r="F11">
-        <v>24.52646958048686</v>
+        <v>34.2993381287744</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>14.61909591181543</v>
+        <v>23.67107187759389</v>
       </c>
       <c r="J11">
-        <v>6.068961311028061</v>
+        <v>10.18757254545453</v>
       </c>
       <c r="K11">
-        <v>13.94231915906923</v>
+        <v>10.28514281844969</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.34162278958849</v>
+        <v>15.336417294183</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.90540136871282</v>
+        <v>25.87655130245851</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.86699517882246</v>
+        <v>10.47459216673363</v>
       </c>
       <c r="C12">
-        <v>9.055288110547719</v>
+        <v>5.395905524177963</v>
       </c>
       <c r="D12">
-        <v>7.926952346449904</v>
+        <v>9.184109639699917</v>
       </c>
       <c r="E12">
-        <v>10.40906174921585</v>
+        <v>13.84056745439154</v>
       </c>
       <c r="F12">
-        <v>24.61512868613256</v>
+        <v>34.28880910766712</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>14.58337635291826</v>
+        <v>23.64880749698178</v>
       </c>
       <c r="J12">
-        <v>6.071311349805041</v>
+        <v>10.1832328241264</v>
       </c>
       <c r="K12">
-        <v>14.09977039627167</v>
+        <v>10.33804848540862</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.50351848683446</v>
+        <v>15.36116346214246</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.91445787905775</v>
+        <v>25.85888997881394</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.82640507541612</v>
+        <v>10.45810418435092</v>
       </c>
       <c r="C13">
-        <v>9.032658578662431</v>
+        <v>5.385532388001059</v>
       </c>
       <c r="D13">
-        <v>7.910726954437995</v>
+        <v>9.181206380977567</v>
       </c>
       <c r="E13">
-        <v>10.3940351046096</v>
+        <v>13.83930084443055</v>
       </c>
       <c r="F13">
-        <v>24.59588578072327</v>
+        <v>34.29102619127629</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>14.5909686917612</v>
+        <v>23.65357419927924</v>
       </c>
       <c r="J13">
-        <v>6.070784041485407</v>
+        <v>10.18415968209164</v>
       </c>
       <c r="K13">
-        <v>14.06599809714773</v>
+        <v>10.32667073540219</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.46879744473991</v>
+        <v>15.35582375885731</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.91238225140388</v>
+        <v>25.8626595754759</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.69335956003909</v>
+        <v>10.40417187220261</v>
       </c>
       <c r="C14">
-        <v>8.958501168094102</v>
+        <v>5.35156802423229</v>
       </c>
       <c r="D14">
-        <v>7.85766070000003</v>
+        <v>9.17176517214279</v>
       </c>
       <c r="E14">
-        <v>10.34503755679989</v>
+        <v>13.83522695166331</v>
       </c>
       <c r="F14">
-        <v>24.53369676116812</v>
+        <v>34.29844913198583</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>14.61611217962889</v>
+        <v>23.66922740819249</v>
       </c>
       <c r="J14">
-        <v>6.069145128241466</v>
+        <v>10.18721200833667</v>
       </c>
       <c r="K14">
-        <v>13.95533480391538</v>
+        <v>10.28950273729186</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.35500792250356</v>
+        <v>15.33844856977909</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.90609027649564</v>
+        <v>25.87508293749696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.61134812202853</v>
+        <v>10.37101387993498</v>
       </c>
       <c r="C15">
-        <v>8.912802570676865</v>
+        <v>5.330660435883247</v>
       </c>
       <c r="D15">
-        <v>7.825040219157918</v>
+        <v>9.166003016889308</v>
       </c>
       <c r="E15">
-        <v>10.31503181149483</v>
+        <v>13.83277528031801</v>
       </c>
       <c r="F15">
-        <v>24.49603812487876</v>
+        <v>34.30314383379194</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>14.63180492494292</v>
+        <v>23.67889839565693</v>
       </c>
       <c r="J15">
-        <v>6.068202991228082</v>
+        <v>10.18910442795898</v>
       </c>
       <c r="K15">
-        <v>13.88714716473544</v>
+        <v>10.26668893371775</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.28488026260405</v>
+        <v>15.3278358138411</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.90260016784114</v>
+        <v>25.8827923844244</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.13342388483008</v>
+        <v>10.1791637461321</v>
       </c>
       <c r="C16">
-        <v>8.646696531088729</v>
+        <v>5.209285384771841</v>
       </c>
       <c r="D16">
-        <v>7.636360859105682</v>
+        <v>9.133308266035211</v>
       </c>
       <c r="E16">
-        <v>10.14321815856524</v>
+        <v>13.81939810738206</v>
       </c>
       <c r="F16">
-        <v>24.2868316486016</v>
+        <v>34.33231373594194</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>14.7260886375625</v>
+        <v>23.7355897938511</v>
       </c>
       <c r="J16">
-        <v>6.063737729141667</v>
+        <v>10.20029850530893</v>
       </c>
       <c r="K16">
-        <v>13.49020677535499</v>
+        <v>10.13526179802729</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.87642065520248</v>
+        <v>15.26749036668552</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.88806599568829</v>
+        <v>25.92850022421335</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.83311603154006</v>
+        <v>10.05988726923605</v>
       </c>
       <c r="C17">
-        <v>8.479668267507517</v>
+        <v>5.133458499966888</v>
       </c>
       <c r="D17">
-        <v>7.519092053259824</v>
+        <v>9.113548447938866</v>
       </c>
       <c r="E17">
-        <v>10.03797783456371</v>
+        <v>13.81179422163274</v>
       </c>
       <c r="F17">
-        <v>24.16432182195397</v>
+        <v>34.35222972166928</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>14.78769290079956</v>
+        <v>23.77150168657441</v>
       </c>
       <c r="J17">
-        <v>6.061818015574568</v>
+        <v>10.20747769273148</v>
       </c>
       <c r="K17">
-        <v>13.24117462054674</v>
+        <v>10.05405828502692</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.64607570715546</v>
+        <v>15.23090382850442</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.8839063697809</v>
+        <v>25.95790272036254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.657762887817</v>
+        <v>9.990723605118388</v>
       </c>
       <c r="C18">
-        <v>8.382205077313372</v>
+        <v>5.089353613321949</v>
       </c>
       <c r="D18">
-        <v>7.451099064115866</v>
+        <v>9.102294989456745</v>
       </c>
       <c r="E18">
-        <v>9.977522032094148</v>
+        <v>13.80764311553937</v>
       </c>
       <c r="F18">
-        <v>24.09597668094586</v>
+        <v>34.36442711909766</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>14.82446248919787</v>
+        <v>23.79257365205588</v>
       </c>
       <c r="J18">
-        <v>6.061009688882682</v>
+        <v>10.21172171088721</v>
       </c>
       <c r="K18">
-        <v>13.0959080554851</v>
+        <v>10.00715579286722</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.52727451334319</v>
+        <v>15.21002433841839</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.88321404271663</v>
+        <v>25.97531432617533</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59793988525736</v>
+        <v>9.967212199359867</v>
       </c>
       <c r="C19">
-        <v>8.348966187439096</v>
+        <v>5.074337199917998</v>
       </c>
       <c r="D19">
-        <v>7.427986111877017</v>
+        <v>9.098504217707267</v>
       </c>
       <c r="E19">
-        <v>9.957067315506411</v>
+        <v>13.80627591998603</v>
       </c>
       <c r="F19">
-        <v>24.07319782651344</v>
+        <v>34.36868437485315</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>14.83713725091711</v>
+        <v>23.79977975666861</v>
       </c>
       <c r="J19">
-        <v>6.060786311180757</v>
+        <v>10.21317837725175</v>
       </c>
       <c r="K19">
-        <v>13.0463746987101</v>
+        <v>9.99124321106528</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.48687110682965</v>
+        <v>15.20298354346155</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.88326711281849</v>
+        <v>25.98129543174264</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.86535570493959</v>
+        <v>10.07264283174379</v>
       </c>
       <c r="C20">
-        <v>8.49759280504875</v>
+        <v>5.141581507927325</v>
       </c>
       <c r="D20">
-        <v>7.531632092682761</v>
+        <v>9.115640394483414</v>
       </c>
       <c r="E20">
-        <v>10.04917339147288</v>
+        <v>13.81258066780867</v>
       </c>
       <c r="F20">
-        <v>24.17714331281921</v>
+        <v>34.3500327980892</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>14.7809956689199</v>
+        <v>23.76763570492163</v>
       </c>
       <c r="J20">
-        <v>6.06199163396138</v>
+        <v>10.20670158281121</v>
       </c>
       <c r="K20">
-        <v>13.26789460396239</v>
+        <v>10.06272322258928</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.66797735427827</v>
+        <v>15.2347816504653</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.88417212982056</v>
+        <v>25.9547210069602</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.73254598583484</v>
+        <v>10.42003882409992</v>
       </c>
       <c r="C21">
-        <v>8.980340289899443</v>
+        <v>5.361565790808045</v>
       </c>
       <c r="D21">
-        <v>7.873271763881307</v>
+        <v>9.17453395207604</v>
       </c>
       <c r="E21">
-        <v>10.35942801654716</v>
+        <v>13.83641445054429</v>
       </c>
       <c r="F21">
-        <v>24.55187263270799</v>
+        <v>34.29623800235515</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>14.60866587197452</v>
+        <v>23.66461239455091</v>
       </c>
       <c r="J21">
-        <v>6.069613618852858</v>
+        <v>10.18631071894342</v>
       </c>
       <c r="K21">
-        <v>13.9879233028254</v>
+        <v>10.30042982588901</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.38851986550424</v>
+        <v>15.34354584919393</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.90786227693209</v>
+        <v>25.87141309816778</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.27613142832026</v>
+        <v>10.64164109473513</v>
       </c>
       <c r="C22">
-        <v>9.283523177914855</v>
+        <v>5.500737733051984</v>
       </c>
       <c r="D22">
-        <v>8.091407083307626</v>
+        <v>9.213964863446225</v>
       </c>
       <c r="E22">
-        <v>10.56253848348418</v>
+        <v>13.85395011882936</v>
       </c>
       <c r="F22">
-        <v>24.81613946116103</v>
+        <v>34.26769992143981</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>14.50896284988311</v>
+        <v>23.60099262857394</v>
       </c>
       <c r="J22">
-        <v>6.077344104082945</v>
+        <v>10.17400399796271</v>
       </c>
       <c r="K22">
-        <v>14.44045552261438</v>
+        <v>10.45370821652944</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.85364474345923</v>
+        <v>15.41598754595218</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.93950376092074</v>
+        <v>25.82143098646829</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.98811987104539</v>
+        <v>10.52388668457107</v>
       </c>
       <c r="C23">
-        <v>9.122831323554315</v>
+        <v>5.42688998851185</v>
       </c>
       <c r="D23">
-        <v>7.975468341732801</v>
+        <v>9.192836517418773</v>
       </c>
       <c r="E23">
-        <v>10.45411851918252</v>
+        <v>13.84441287797058</v>
       </c>
       <c r="F23">
-        <v>24.67330170638377</v>
+        <v>34.28232509694357</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>14.56094184281818</v>
+        <v>23.63460785467263</v>
       </c>
       <c r="J23">
-        <v>6.07296102748488</v>
+        <v>10.18047909784655</v>
       </c>
       <c r="K23">
-        <v>14.20057930959623</v>
+        <v>10.37210598472512</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.6071450853478</v>
+        <v>15.37720486285875</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.92108814726071</v>
+        <v>25.84769834652501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.85078856724691</v>
+        <v>10.0668778744091</v>
       </c>
       <c r="C24">
-        <v>8.489493596572652</v>
+        <v>5.137910685052312</v>
       </c>
       <c r="D24">
-        <v>7.52596452380024</v>
+        <v>9.114694292414942</v>
       </c>
       <c r="E24">
-        <v>10.04411172604945</v>
+        <v>13.81222442852593</v>
       </c>
       <c r="F24">
-        <v>24.17134022064904</v>
+        <v>34.35102369915703</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>14.78401928584707</v>
+        <v>23.76938218910164</v>
       </c>
       <c r="J24">
-        <v>6.061912222424866</v>
+        <v>10.20705209886329</v>
       </c>
       <c r="K24">
-        <v>13.2558210239897</v>
+        <v>10.05880647809282</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.65807907688952</v>
+        <v>15.23302800445878</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.88404669868335</v>
+        <v>25.95615787818876</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52359886912245</v>
+        <v>9.552894572744206</v>
       </c>
       <c r="C25">
-        <v>7.753069340246306</v>
+        <v>4.807601966559655</v>
       </c>
       <c r="D25">
-        <v>7.020610592460129</v>
+        <v>9.034712222688961</v>
       </c>
       <c r="E25">
-        <v>9.604983643523916</v>
+        <v>13.78601866735608</v>
       </c>
       <c r="F25">
-        <v>23.71054407608656</v>
+        <v>34.45349340751814</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>15.07523711699788</v>
+        <v>23.93067593393588</v>
       </c>
       <c r="J25">
-        <v>6.061240215611519</v>
+        <v>10.24010316240569</v>
       </c>
       <c r="K25">
-        <v>12.15919596979847</v>
+        <v>9.713574018842923</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.772996832552</v>
+        <v>15.08384152379505</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.90849776283922</v>
+        <v>26.09226038883648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.159246203565633</v>
+        <v>12.45912808962673</v>
       </c>
       <c r="C2">
-        <v>4.5499046280394</v>
+        <v>7.164740222986589</v>
       </c>
       <c r="D2">
-        <v>8.979792736928719</v>
+        <v>6.633060472436202</v>
       </c>
       <c r="E2">
-        <v>13.7741381894298</v>
+        <v>9.286311182010994</v>
       </c>
       <c r="F2">
-        <v>34.55325754982253</v>
+        <v>23.43734301390788</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>24.06312510769107</v>
+        <v>15.32830005629404</v>
       </c>
       <c r="J2">
-        <v>10.2682249483143</v>
+        <v>6.069812545828287</v>
       </c>
       <c r="K2">
-        <v>9.454984062778191</v>
+        <v>11.28524883511425</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.9799449664667</v>
+        <v>11.09026870983728</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.20885599705282</v>
+        <v>16.97643551014568</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.884693243138871</v>
+        <v>11.68301566890342</v>
       </c>
       <c r="C3">
-        <v>4.367182745457606</v>
+        <v>6.737286099769673</v>
       </c>
       <c r="D3">
-        <v>8.945177260699065</v>
+        <v>6.36219695266917</v>
       </c>
       <c r="E3">
-        <v>13.7707508465182</v>
+        <v>9.074344863710806</v>
       </c>
       <c r="F3">
-        <v>34.63598502883749</v>
+        <v>23.29147082722344</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.16142677615201</v>
+        <v>15.52173540598754</v>
       </c>
       <c r="J3">
-        <v>10.28965163120334</v>
+        <v>6.08098232789163</v>
       </c>
       <c r="K3">
-        <v>9.278017926341722</v>
+        <v>10.65189545533517</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91348651162734</v>
+        <v>10.61051609403256</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.2980661370311</v>
+        <v>17.05092826390825</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.712933884357584</v>
+        <v>11.17947873043689</v>
       </c>
       <c r="C4">
-        <v>4.251398255476476</v>
+        <v>6.460725056782861</v>
       </c>
       <c r="D4">
-        <v>8.925247705600935</v>
+        <v>6.192419923287677</v>
       </c>
       <c r="E4">
-        <v>13.77098270969455</v>
+        <v>8.946557649297297</v>
       </c>
       <c r="F4">
-        <v>34.69421619270263</v>
+        <v>23.22054605147074</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>24.22599673055941</v>
+        <v>15.65067502955008</v>
       </c>
       <c r="J4">
-        <v>10.30397794892029</v>
+        <v>6.090388663981451</v>
       </c>
       <c r="K4">
-        <v>9.168876820606073</v>
+        <v>10.24301823546947</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.87470806016489</v>
+        <v>10.30850274866275</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.35785915870146</v>
+        <v>17.10982411043306</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.642247163269831</v>
+        <v>10.9675032392009</v>
       </c>
       <c r="C5">
-        <v>4.203379289785875</v>
+        <v>6.344498392510127</v>
       </c>
       <c r="D5">
-        <v>8.917465203559033</v>
+        <v>6.122464265546827</v>
       </c>
       <c r="E5">
-        <v>13.7716600822821</v>
+        <v>8.895136870011571</v>
       </c>
       <c r="F5">
-        <v>34.71981260068038</v>
+        <v>23.19621393807386</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>24.25336866349686</v>
+        <v>15.70568648618778</v>
       </c>
       <c r="J5">
-        <v>10.3101106098418</v>
+        <v>6.094848588797854</v>
       </c>
       <c r="K5">
-        <v>9.124336355166697</v>
+        <v>10.07142633628926</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.85942676693016</v>
+        <v>10.18372879502895</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.38348551760726</v>
+        <v>17.13700547843019</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.630471080607132</v>
+        <v>10.93189586265076</v>
       </c>
       <c r="C6">
-        <v>4.195357425595826</v>
+        <v>6.324986872574394</v>
       </c>
       <c r="D6">
-        <v>8.916193562360677</v>
+        <v>6.11080485876349</v>
       </c>
       <c r="E6">
-        <v>13.77180780581888</v>
+        <v>8.886639706614909</v>
       </c>
       <c r="F6">
-        <v>34.72417551263641</v>
+        <v>23.19244604752454</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>24.25797772076475</v>
+        <v>15.71496762996738</v>
       </c>
       <c r="J6">
-        <v>10.3111467335971</v>
+        <v>6.09562660693997</v>
       </c>
       <c r="K6">
-        <v>9.116938231947831</v>
+        <v>10.04263539367661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.85692112462051</v>
+        <v>10.16291286414009</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.38781682421463</v>
+        <v>17.14170736236809</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.711983239181254</v>
+        <v>11.17664738688566</v>
       </c>
       <c r="C7">
-        <v>4.250753944088129</v>
+        <v>6.459171825550182</v>
       </c>
       <c r="D7">
-        <v>8.925141368112396</v>
+        <v>6.191479452549205</v>
       </c>
       <c r="E7">
-        <v>13.77098948297799</v>
+        <v>8.945861445496805</v>
       </c>
       <c r="F7">
-        <v>34.69455384088151</v>
+        <v>23.22019955632947</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>24.22636158963585</v>
+        <v>15.65140705615683</v>
       </c>
       <c r="J7">
-        <v>10.30405946302914</v>
+        <v>6.090446292611726</v>
       </c>
       <c r="K7">
-        <v>9.168276317672932</v>
+        <v>10.24072412722158</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.87449984612216</v>
+        <v>10.3068266489906</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.3581996642004</v>
+        <v>17.11017797528526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.065302719393374</v>
+        <v>12.19713090775078</v>
       </c>
       <c r="C8">
-        <v>4.48768580520126</v>
+        <v>7.020290483331873</v>
       </c>
       <c r="D8">
-        <v>8.967586068079791</v>
+        <v>6.54044321665913</v>
       </c>
       <c r="E8">
-        <v>13.77249146527835</v>
+        <v>9.212771039865986</v>
       </c>
       <c r="F8">
-        <v>34.58023681273165</v>
+        <v>23.38310952417019</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>24.09614520729617</v>
+        <v>15.39282986080164</v>
       </c>
       <c r="J8">
-        <v>10.27537016654426</v>
+        <v>6.073126572833437</v>
       </c>
       <c r="K8">
-        <v>9.394100161046506</v>
+        <v>11.07104773825107</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.95661637013869</v>
+        <v>10.92649029175661</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.2385733496846</v>
+        <v>16.99931227181744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.728600983315824</v>
+        <v>13.98416951692391</v>
       </c>
       <c r="C9">
-        <v>4.921230539540634</v>
+        <v>8.008286374227817</v>
       </c>
       <c r="D9">
-        <v>9.061054958811647</v>
+        <v>7.193405912539733</v>
       </c>
       <c r="E9">
-        <v>13.79370005099408</v>
+        <v>9.752320715694957</v>
       </c>
       <c r="F9">
-        <v>34.41519295800673</v>
+        <v>23.85526252781418</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>23.87421734668317</v>
+        <v>14.97082922037944</v>
       </c>
       <c r="J9">
-        <v>10.22838251832838</v>
+        <v>6.060018173000127</v>
       </c>
       <c r="K9">
-        <v>9.830679906132675</v>
+        <v>12.53895719078621</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.13320433210067</v>
+        <v>12.0762220622516</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.04386532493187</v>
+        <v>16.89214153166487</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.19269661076779</v>
+        <v>15.16733614565232</v>
       </c>
       <c r="C10">
-        <v>5.217870362417696</v>
+        <v>8.665567108492002</v>
       </c>
       <c r="D10">
-        <v>9.135577970303817</v>
+        <v>7.649667296182947</v>
       </c>
       <c r="E10">
-        <v>13.82029583442855</v>
+        <v>10.15523587209307</v>
       </c>
       <c r="F10">
-        <v>34.33014180081307</v>
+        <v>24.30109979528935</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>23.7315484329818</v>
+        <v>14.7192436113859</v>
       </c>
       <c r="J10">
-        <v>10.19949485138652</v>
+        <v>6.063997255519437</v>
       </c>
       <c r="K10">
-        <v>10.14449992273153</v>
+        <v>13.51834803466508</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.27168703527892</v>
+        <v>12.90539206428158</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.92521299511376</v>
+        <v>16.88877448118307</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.39783829902836</v>
+        <v>15.67770716001535</v>
       </c>
       <c r="C11">
-        <v>5.347575969763244</v>
+        <v>8.949778520205328</v>
       </c>
       <c r="D11">
-        <v>9.170662029413281</v>
+        <v>7.851429513140469</v>
       </c>
       <c r="E11">
-        <v>13.83475552262654</v>
+        <v>10.33929911599655</v>
       </c>
       <c r="F11">
-        <v>34.2993381287744</v>
+        <v>24.52646958048683</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>23.67107187759389</v>
+        <v>14.6190959118155</v>
       </c>
       <c r="J11">
-        <v>10.18757254545453</v>
+        <v>6.068961311028112</v>
       </c>
       <c r="K11">
-        <v>10.28514281844969</v>
+        <v>13.94231915906921</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.336417294183</v>
+        <v>13.34162278958847</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.87655130245851</v>
+        <v>16.90540136871282</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.47459216673363</v>
+        <v>15.86699517882251</v>
       </c>
       <c r="C12">
-        <v>5.395905524177963</v>
+        <v>9.055288110547743</v>
       </c>
       <c r="D12">
-        <v>9.184109639699917</v>
+        <v>7.926952346449874</v>
       </c>
       <c r="E12">
-        <v>13.84056745439154</v>
+        <v>10.40906174921588</v>
       </c>
       <c r="F12">
-        <v>34.28880910766712</v>
+        <v>24.6151286861324</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>23.64880749698178</v>
+        <v>14.58337635291812</v>
       </c>
       <c r="J12">
-        <v>10.1832328241264</v>
+        <v>6.071311349805094</v>
       </c>
       <c r="K12">
-        <v>10.33804848540862</v>
+        <v>14.09977039627174</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.36116346214246</v>
+        <v>13.50351848683448</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.85888997881394</v>
+        <v>16.91445787905758</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.45810418435092</v>
+        <v>15.82640507541613</v>
       </c>
       <c r="C13">
-        <v>5.385532388001059</v>
+        <v>9.032658578662415</v>
       </c>
       <c r="D13">
-        <v>9.181206380977567</v>
+        <v>7.910726954437981</v>
       </c>
       <c r="E13">
-        <v>13.83930084443055</v>
+        <v>10.39403510460957</v>
       </c>
       <c r="F13">
-        <v>34.29102619127629</v>
+        <v>24.59588578072324</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>23.65357419927924</v>
+        <v>14.59096869176118</v>
       </c>
       <c r="J13">
-        <v>10.18415968209164</v>
+        <v>6.070784041485382</v>
       </c>
       <c r="K13">
-        <v>10.32667073540219</v>
+        <v>14.06599809714772</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.35582375885731</v>
+        <v>13.46879744473992</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.8626595754759</v>
+        <v>16.91238225140384</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.40417187220261</v>
+        <v>15.69335956003909</v>
       </c>
       <c r="C14">
-        <v>5.35156802423229</v>
+        <v>8.958501168094102</v>
       </c>
       <c r="D14">
-        <v>9.17176517214279</v>
+        <v>7.857660700000061</v>
       </c>
       <c r="E14">
-        <v>13.83522695166331</v>
+        <v>10.34503755679991</v>
       </c>
       <c r="F14">
-        <v>34.29844913198583</v>
+        <v>24.53369676116807</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>23.66922740819249</v>
+        <v>14.6161121796288</v>
       </c>
       <c r="J14">
-        <v>10.18721200833667</v>
+        <v>6.069145128241467</v>
       </c>
       <c r="K14">
-        <v>10.28950273729186</v>
+        <v>13.95533480391536</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.33844856977909</v>
+        <v>13.35500792250352</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.87508293749696</v>
+        <v>16.90609027649553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.37101387993498</v>
+        <v>15.61134812202852</v>
       </c>
       <c r="C15">
-        <v>5.330660435883247</v>
+        <v>8.912802570676792</v>
       </c>
       <c r="D15">
-        <v>9.166003016889308</v>
+        <v>7.825040219157862</v>
       </c>
       <c r="E15">
-        <v>13.83277528031801</v>
+        <v>10.31503181149482</v>
       </c>
       <c r="F15">
-        <v>34.30314383379194</v>
+        <v>24.4960381248788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>23.67889839565693</v>
+        <v>14.63180492494292</v>
       </c>
       <c r="J15">
-        <v>10.18910442795898</v>
+        <v>6.068202991228129</v>
       </c>
       <c r="K15">
-        <v>10.26668893371775</v>
+        <v>13.88714716473543</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3278358138411</v>
+        <v>13.28488026260403</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.8827923844244</v>
+        <v>16.90260016784119</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.1791637461321</v>
+        <v>15.13342388483001</v>
       </c>
       <c r="C16">
-        <v>5.209285384771841</v>
+        <v>8.646696531088773</v>
       </c>
       <c r="D16">
-        <v>9.133308266035211</v>
+        <v>7.636360859105682</v>
       </c>
       <c r="E16">
-        <v>13.81939810738206</v>
+        <v>10.14321815856521</v>
       </c>
       <c r="F16">
-        <v>34.33231373594194</v>
+        <v>24.28683164860173</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>23.7355897938511</v>
+        <v>14.72608863756262</v>
       </c>
       <c r="J16">
-        <v>10.20029850530893</v>
+        <v>6.063737729141655</v>
       </c>
       <c r="K16">
-        <v>10.13526179802729</v>
+        <v>13.49020677535495</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.26749036668552</v>
+        <v>12.87642065520247</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.92850022421335</v>
+        <v>16.88806599568841</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.05988726923605</v>
+        <v>14.8331160315401</v>
       </c>
       <c r="C17">
-        <v>5.133458499966888</v>
+        <v>8.479668267507359</v>
       </c>
       <c r="D17">
-        <v>9.113548447938866</v>
+        <v>7.519092053259839</v>
       </c>
       <c r="E17">
-        <v>13.81179422163274</v>
+        <v>10.03797783456379</v>
       </c>
       <c r="F17">
-        <v>34.35222972166928</v>
+        <v>24.16432182195406</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>23.77150168657441</v>
+        <v>14.78769290079962</v>
       </c>
       <c r="J17">
-        <v>10.20747769273148</v>
+        <v>6.061818015574654</v>
       </c>
       <c r="K17">
-        <v>10.05405828502692</v>
+        <v>13.24117462054668</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.23090382850442</v>
+        <v>12.6460757071555</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.95790272036254</v>
+        <v>16.88390636978098</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.990723605118388</v>
+        <v>14.65776288781708</v>
       </c>
       <c r="C18">
-        <v>5.089353613321949</v>
+        <v>8.38220507731331</v>
       </c>
       <c r="D18">
-        <v>9.102294989456745</v>
+        <v>7.451099064115832</v>
       </c>
       <c r="E18">
-        <v>13.80764311553937</v>
+        <v>9.977522032094175</v>
       </c>
       <c r="F18">
-        <v>34.36442711909766</v>
+        <v>24.0959766809457</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>23.79257365205588</v>
+        <v>14.82446248919774</v>
       </c>
       <c r="J18">
-        <v>10.21172171088721</v>
+        <v>6.061009688882707</v>
       </c>
       <c r="K18">
-        <v>10.00715579286722</v>
+        <v>13.09590805548516</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.21002433841839</v>
+        <v>12.52727451334318</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.97531432617533</v>
+        <v>16.88321404271649</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.967212199359867</v>
+        <v>14.59793988525734</v>
       </c>
       <c r="C19">
-        <v>5.074337199917998</v>
+        <v>8.348966187439178</v>
       </c>
       <c r="D19">
-        <v>9.098504217707267</v>
+        <v>7.427986111876954</v>
       </c>
       <c r="E19">
-        <v>13.80627591998603</v>
+        <v>9.957067315506411</v>
       </c>
       <c r="F19">
-        <v>34.36868437485315</v>
+        <v>24.07319782651345</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>23.79977975666861</v>
+        <v>14.83713725091718</v>
       </c>
       <c r="J19">
-        <v>10.21317837725175</v>
+        <v>6.060786311180815</v>
       </c>
       <c r="K19">
-        <v>9.99124321106528</v>
+        <v>13.04637469871009</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.20298354346155</v>
+        <v>12.48687110682964</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.98129543174264</v>
+        <v>16.88326711281852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.07264283174379</v>
+        <v>14.86535570493961</v>
       </c>
       <c r="C20">
-        <v>5.141581507927325</v>
+        <v>8.497592805048978</v>
       </c>
       <c r="D20">
-        <v>9.115640394483414</v>
+        <v>7.531632092682811</v>
       </c>
       <c r="E20">
-        <v>13.81258066780867</v>
+        <v>10.04917339147286</v>
       </c>
       <c r="F20">
-        <v>34.3500327980892</v>
+        <v>24.17714331281912</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>23.76763570492163</v>
+        <v>14.78099566891983</v>
       </c>
       <c r="J20">
-        <v>10.20670158281121</v>
+        <v>6.061991633961314</v>
       </c>
       <c r="K20">
-        <v>10.06272322258928</v>
+        <v>13.26789460396248</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.2347816504653</v>
+        <v>12.66797735427824</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.9547210069602</v>
+        <v>16.88417212982043</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.42003882409992</v>
+        <v>15.7325459858348</v>
       </c>
       <c r="C21">
-        <v>5.361565790808045</v>
+        <v>8.980340289899667</v>
       </c>
       <c r="D21">
-        <v>9.17453395207604</v>
+        <v>7.873271763881344</v>
       </c>
       <c r="E21">
-        <v>13.83641445054429</v>
+        <v>10.35942801654712</v>
       </c>
       <c r="F21">
-        <v>34.29623800235515</v>
+        <v>24.55187263270809</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>23.66461239455091</v>
+        <v>14.60866587197467</v>
       </c>
       <c r="J21">
-        <v>10.18631071894342</v>
+        <v>6.069613618852781</v>
       </c>
       <c r="K21">
-        <v>10.30042982588901</v>
+        <v>13.98792330282544</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.34354584919393</v>
+        <v>13.38851986550426</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.87141309816778</v>
+        <v>16.90786227693215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.64164109473513</v>
+        <v>16.27613142832028</v>
       </c>
       <c r="C22">
-        <v>5.500737733051984</v>
+        <v>9.283523177914756</v>
       </c>
       <c r="D22">
-        <v>9.213964863446225</v>
+        <v>8.091407083307626</v>
       </c>
       <c r="E22">
-        <v>13.85395011882936</v>
+        <v>10.56253848348419</v>
       </c>
       <c r="F22">
-        <v>34.26769992143981</v>
+        <v>24.81613946116095</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>23.60099262857394</v>
+        <v>14.50896284988304</v>
       </c>
       <c r="J22">
-        <v>10.17400399796271</v>
+        <v>6.077344104082995</v>
       </c>
       <c r="K22">
-        <v>10.45370821652944</v>
+        <v>14.44045552261439</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.41598754595218</v>
+        <v>13.85364474345922</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.82143098646829</v>
+        <v>16.93950376092067</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.52388668457107</v>
+        <v>15.98811987104535</v>
       </c>
       <c r="C23">
-        <v>5.42688998851185</v>
+        <v>9.122831323554253</v>
       </c>
       <c r="D23">
-        <v>9.192836517418773</v>
+        <v>7.975468341732824</v>
       </c>
       <c r="E23">
-        <v>13.84441287797058</v>
+        <v>10.45411851918256</v>
       </c>
       <c r="F23">
-        <v>34.28232509694357</v>
+        <v>24.67330170638393</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>23.63460785467263</v>
+        <v>14.56094184281829</v>
       </c>
       <c r="J23">
-        <v>10.18047909784655</v>
+        <v>6.07296102748486</v>
       </c>
       <c r="K23">
-        <v>10.37210598472512</v>
+        <v>14.20057930959618</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.37720486285875</v>
+        <v>13.60714508534777</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.84769834652501</v>
+        <v>16.92108814726081</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.0668778744091</v>
+        <v>14.85078856724692</v>
       </c>
       <c r="C24">
-        <v>5.137910685052312</v>
+        <v>8.489493596572709</v>
       </c>
       <c r="D24">
-        <v>9.114694292414942</v>
+        <v>7.525964523800098</v>
       </c>
       <c r="E24">
-        <v>13.81222442852593</v>
+        <v>10.04411172604941</v>
       </c>
       <c r="F24">
-        <v>34.35102369915703</v>
+        <v>24.17134022064889</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>23.76938218910164</v>
+        <v>14.78401928584701</v>
       </c>
       <c r="J24">
-        <v>10.20705209886329</v>
+        <v>6.061912222424897</v>
       </c>
       <c r="K24">
-        <v>10.05880647809282</v>
+        <v>13.25582102398976</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.23302800445878</v>
+        <v>12.65807907688949</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.95615787818876</v>
+        <v>16.88404669868324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.552894572744206</v>
+        <v>13.52359886912252</v>
       </c>
       <c r="C25">
-        <v>4.807601966559655</v>
+        <v>7.753069340246236</v>
       </c>
       <c r="D25">
-        <v>9.034712222688961</v>
+        <v>7.02061059246015</v>
       </c>
       <c r="E25">
-        <v>13.78601866735608</v>
+        <v>9.60498364352396</v>
       </c>
       <c r="F25">
-        <v>34.45349340751814</v>
+        <v>23.71054407608644</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>23.93067593393588</v>
+        <v>15.07523711699777</v>
       </c>
       <c r="J25">
-        <v>10.24010316240569</v>
+        <v>6.061240215611577</v>
       </c>
       <c r="K25">
-        <v>9.713574018842923</v>
+        <v>12.15919596979851</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.08384152379505</v>
+        <v>11.77299683255198</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.09226038883648</v>
+        <v>16.9084977628391</v>
       </c>
     </row>
   </sheetData>
